--- a/data_year/zb/运输和邮电/旅客周转量.xlsx
+++ b/data_year/zb/运输和邮电/旅客周转量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,616 +478,356 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6657.42</v>
+        <v>15020.8123</v>
       </c>
       <c r="C2" t="n">
-        <v>113.32</v>
+        <v>30.15046</v>
       </c>
       <c r="D2" t="n">
-        <v>4414.68</v>
+        <v>8725.72206</v>
       </c>
       <c r="E2" t="n">
-        <v>4.59</v>
+        <v>6.30574</v>
       </c>
       <c r="F2" t="n">
-        <v>12261.1</v>
+        <v>27894.256618</v>
       </c>
       <c r="G2" t="n">
-        <v>970.5436989999999</v>
+        <v>4038.995958</v>
       </c>
       <c r="H2" t="n">
-        <v>100.54</v>
+        <v>72.2701</v>
       </c>
       <c r="I2" t="n">
-        <v>4532.59</v>
+        <v>8762.178260000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7207.08</v>
+        <v>16760.2466</v>
       </c>
       <c r="C3" t="n">
-        <v>125.07</v>
+        <v>22.966563</v>
       </c>
       <c r="D3" t="n">
-        <v>4636.55</v>
+        <v>9582.705889999999</v>
       </c>
       <c r="E3" t="n">
-        <v>5.2</v>
+        <v>6.6211</v>
       </c>
       <c r="F3" t="n">
-        <v>13155.13</v>
+        <v>30984.03</v>
       </c>
       <c r="G3" t="n">
-        <v>1091.35</v>
+        <v>4536.9629</v>
       </c>
       <c r="H3" t="n">
-        <v>89.88</v>
+        <v>74.52849999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>4766.82</v>
+        <v>9612.293553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7805.8</v>
+        <v>18467.546</v>
       </c>
       <c r="C4" t="n">
-        <v>161.1</v>
+        <v>21.46127</v>
       </c>
       <c r="D4" t="n">
-        <v>4803.1</v>
+        <v>9783.990379999999</v>
       </c>
       <c r="E4" t="n">
-        <v>5.3</v>
+        <v>6.87553</v>
       </c>
       <c r="F4" t="n">
-        <v>14125.6</v>
+        <v>33383.088894</v>
       </c>
       <c r="G4" t="n">
-        <v>1268.7</v>
+        <v>5025.736614</v>
       </c>
       <c r="H4" t="n">
-        <v>81.8</v>
+        <v>77.4791</v>
       </c>
       <c r="I4" t="n">
-        <v>4969.4</v>
+        <v>9812.32718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7695.6</v>
+        <v>11250.943</v>
       </c>
       <c r="C5" t="n">
-        <v>161.83</v>
+        <v>38.01509</v>
       </c>
       <c r="D5" t="n">
-        <v>4622.79</v>
+        <v>10550.32145</v>
       </c>
       <c r="E5" t="n">
-        <v>3.99</v>
+        <v>7.28204</v>
       </c>
       <c r="F5" t="n">
-        <v>13810.5</v>
+        <v>27571.653741</v>
       </c>
       <c r="G5" t="n">
-        <v>1263.19</v>
+        <v>5656.759561</v>
       </c>
       <c r="H5" t="n">
-        <v>63.1</v>
+        <v>68.3326</v>
       </c>
       <c r="I5" t="n">
-        <v>4788.61</v>
+        <v>10595.61858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8748.4</v>
+        <v>10996.75</v>
       </c>
       <c r="C6" t="n">
-        <v>196.2</v>
+        <v>41.12672</v>
       </c>
       <c r="D6" t="n">
-        <v>5512</v>
+        <v>11556.36449</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7.26083</v>
       </c>
       <c r="F6" t="n">
-        <v>16309.1</v>
+        <v>28647.1315702</v>
       </c>
       <c r="G6" t="n">
-        <v>1782.3</v>
+        <v>6334.190277</v>
       </c>
       <c r="H6" t="n">
-        <v>66.3</v>
+        <v>74.3412932</v>
       </c>
       <c r="I6" t="n">
-        <v>5712.2</v>
+        <v>11241.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9292.08</v>
-      </c>
-      <c r="C7" t="n">
-        <v>225.23</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5833.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.53</v>
-      </c>
+        <v>10742.6585</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>17466.74</v>
+        <v>30058.8981</v>
       </c>
       <c r="G7" t="n">
-        <v>2044.93</v>
+        <v>7282.5513</v>
       </c>
       <c r="H7" t="n">
-        <v>67.77</v>
+        <v>73.084</v>
       </c>
       <c r="I7" t="n">
-        <v>6061.96</v>
+        <v>11960.6043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10130.8458</v>
-      </c>
-      <c r="C8" t="n">
-        <v>264.19039</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6353.26712</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.6647</v>
-      </c>
+        <v>10228.70765349</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>19197.210515</v>
+        <v>31258.46</v>
       </c>
       <c r="G8" t="n">
-        <v>2370.660005</v>
+        <v>8378.134775</v>
       </c>
       <c r="H8" t="n">
-        <v>73.5825</v>
+        <v>72.32654191</v>
       </c>
       <c r="I8" t="n">
-        <v>6622.12221</v>
+        <v>12579.29334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11506.7668</v>
-      </c>
-      <c r="C9" t="n">
-        <v>314.81</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6896.18</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.31547</v>
-      </c>
+        <v>9765.17944</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>21592.580858</v>
+        <v>32812.79978731</v>
       </c>
       <c r="G9" t="n">
-        <v>2791.725758</v>
+        <v>9513.03577</v>
       </c>
       <c r="H9" t="n">
-        <v>77.7783</v>
+        <v>77.66413731</v>
       </c>
       <c r="I9" t="n">
-        <v>7216.31</v>
+        <v>13456.92044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12476.1149</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33.6000261</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7739.14993</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.8546</v>
-      </c>
+        <v>9279.67860594</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>23196.6983891</v>
+        <v>34218.15190624</v>
       </c>
       <c r="G10" t="n">
-        <v>2882.799333</v>
+        <v>10712.316619</v>
       </c>
       <c r="H10" t="n">
-        <v>59.1796</v>
+        <v>79.5741913</v>
       </c>
       <c r="I10" t="n">
-        <v>7778.6045561</v>
+        <v>14146.58249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13511.4375</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33.16115</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7840.09241</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.63496</v>
-      </c>
+        <v>8857.079397150001</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>24834.941582</v>
+        <v>35349.2380097</v>
       </c>
       <c r="G11" t="n">
-        <v>3375.235362</v>
+        <v>11705.297124</v>
       </c>
       <c r="H11" t="n">
-        <v>69.3802</v>
+        <v>80.22017855</v>
       </c>
       <c r="I11" t="n">
-        <v>7878.88852</v>
+        <v>14706.64131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15020.8123</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.15046</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8725.72206</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.30574</v>
-      </c>
+        <v>4641.0098</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>27894.256618</v>
+        <v>19251.461623</v>
       </c>
       <c r="G12" t="n">
-        <v>4038.995958</v>
+        <v>6311.277023</v>
       </c>
       <c r="H12" t="n">
-        <v>72.2701</v>
+        <v>32.9856</v>
       </c>
       <c r="I12" t="n">
-        <v>8762.178260000001</v>
+        <v>8266.189200000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16760.2466</v>
-      </c>
-      <c r="C13" t="n">
-        <v>22.966563</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9582.705889999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.6211</v>
-      </c>
+        <v>3627.54262129</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>30984.03</v>
+        <v>19758.14872043</v>
       </c>
       <c r="G13" t="n">
-        <v>4536.9629</v>
+        <v>6529.681295</v>
       </c>
       <c r="H13" t="n">
-        <v>74.52849999999999</v>
+        <v>33.11166414</v>
       </c>
       <c r="I13" t="n">
-        <v>9612.293553</v>
+        <v>9567.81314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18467.546</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21.46127</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9783.990379999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.87553</v>
-      </c>
+        <v>2407.54</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>33383.088894</v>
+        <v>12921.42027</v>
       </c>
       <c r="G14" t="n">
-        <v>5025.736614</v>
+        <v>3913.75</v>
       </c>
       <c r="H14" t="n">
-        <v>77.4791</v>
+        <v>22.6</v>
       </c>
       <c r="I14" t="n">
-        <v>9812.32718</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11250.943</v>
-      </c>
-      <c r="C15" t="n">
-        <v>38.01509</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10550.32145</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.28204</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27571.653741</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5656.759561</v>
-      </c>
-      <c r="H15" t="n">
-        <v>68.3326</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10595.61858</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10996.75</v>
-      </c>
-      <c r="C16" t="n">
-        <v>41.12672</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11556.36449</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.26083</v>
-      </c>
-      <c r="F16" t="n">
-        <v>28647.1315702</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6334.190277</v>
-      </c>
-      <c r="H16" t="n">
-        <v>74.3412932</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11241.85</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10742.6585</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>30058.8981</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7282.5513</v>
-      </c>
-      <c r="H17" t="n">
-        <v>73.084</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11960.6043</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10228.70765349</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>31258.46</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8378.134775</v>
-      </c>
-      <c r="H18" t="n">
-        <v>72.32654191</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12579.29334</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9765.17944</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>32812.79978731</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9513.03577</v>
-      </c>
-      <c r="H19" t="n">
-        <v>77.66413731</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13456.92044</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9279.67860594</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>34218.15190624</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10712.316619</v>
-      </c>
-      <c r="H20" t="n">
-        <v>79.5741913</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14146.58249</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8857.079397150001</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>35349.2380097</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11705.297124</v>
-      </c>
-      <c r="H21" t="n">
-        <v>80.22017855</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14706.64131</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4641.0098</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>19251.461623</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6311.277023</v>
-      </c>
-      <c r="H22" t="n">
-        <v>32.9856</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8266.189200000001</v>
+        <v>6577.53027</v>
       </c>
     </row>
   </sheetData>
